--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value967.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value967.xlsx
@@ -351,10 +351,10 @@
         <v>1.421619349495649</v>
       </c>
       <c r="B1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.376511433340706</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value967.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value967.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.421619349495649</v>
+        <v>0.9789442420005798</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1.344437479972839</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>1.946287274360657</v>
       </c>
       <c r="D1">
-        <v>1.376511433340706</v>
+        <v>5.308160781860352</v>
       </c>
       <c r="E1">
-        <v>0.8084740352762807</v>
+        <v>1.873375296592712</v>
       </c>
     </row>
   </sheetData>
